--- a/Assets/Resources/MasterData/MessageData.xlsx
+++ b/Assets/Resources/MasterData/MessageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2DRoguelike_\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1244EF10-CF5C-4EC6-8776-FAD0FF470506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9534B97-1923-4B96-8430-5D612F12E44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="-15615" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MessageData" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +90,23 @@
     <t>杖C</t>
     <rPh sb="0" eb="1">
       <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが{0}回復した</t>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満腹度が{0}回復した</t>
+    <rPh sb="0" eb="3">
+      <t>マンプクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,11 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -459,13 +466,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -506,7 +513,9 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -515,7 +524,9 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -593,7 +604,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1000</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -604,7 +615,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1001</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -615,7 +626,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2000</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -626,7 +637,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -637,7 +648,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>2002</v>
       </c>
       <c r="B17" s="2" t="s">
